--- a/biology/Zoologie/Asterometridae/Asterometridae.xlsx
+++ b/biology/Zoologie/Asterometridae/Asterometridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Asterometridae sont une famille de comatules.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces comatules portent jusqu'à trente bras. Le centrodorsal est petit, à cinq faces, en forme de colonne ou subconique. L'apex est légèrement conique à concave, et porte souvent cinq tubercules radiaux. L'étoile aborale est parfois visible. La surface orale du centrodorsal porte des dépressions radiales, qui peuvent former chez les juvéniles des canaux vers l'étoile aborale. Les cirrhes portent plus de cinquante segments, les plus distaux étant équipés d'épines aborales (sauf chez les Simometra). Les basales sont en forme de bâtons, et ne se réunissent pas autour de la cavité centrodorsale. Les pinnules portent des plaques ambulacraires distinctes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces comatules portent jusqu'à trente bras. Le centrodorsal est petit, à cinq faces, en forme de colonne ou subconique. L'apex est légèrement conique à concave, et porte souvent cinq tubercules radiaux. L'étoile aborale est parfois visible. La surface orale du centrodorsal porte des dépressions radiales, qui peuvent former chez les juvéniles des canaux vers l'étoile aborale. Les cirrhes portent plus de cinquante segments, les plus distaux étant équipés d'épines aborales (sauf chez les Simometra). Les basales sont en forme de bâtons, et ne se réunissent pas autour de la cavité centrodorsale. Les pinnules portent des plaques ambulacraires distinctes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (16 février 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (16 février 2021) :
 genre Asterometra AH Clark, 1907 -- 5 espèces
 genre Pterometra AH Clark, 1909 -- 5 espèces
 genre Sinometra Yulin, 1984 -- 1 espèce</t>
